--- a/results/classification/iris/executions_results_partial.xlsx
+++ b/results/classification/iris/executions_results_partial.xlsx
@@ -12,18 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>architecture</t>
   </si>
   <si>
-    <t>acc_train</t>
-  </si>
-  <si>
-    <t>acc_validation</t>
-  </si>
-  <si>
-    <t>acc_test</t>
+    <t>partial_acc_train</t>
+  </si>
+  <si>
+    <t>partial_acc_validation</t>
+  </si>
+  <si>
+    <t>partial_acc_test</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>total_acc_train</t>
+  </si>
+  <si>
+    <t>total_acc_validation</t>
+  </si>
+  <si>
+    <t>total_acc_test</t>
   </si>
   <si>
     <t>percentage</t>
@@ -95,70 +107,76 @@
     <t>22</t>
   </si>
   <si>
-    <t>nnnnnnnnnnnnnnnn_nnnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnnnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnnnnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnn/nnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnn/nnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnnnnn_nnnnnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnn/nnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnnn/nnnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnnn/nnnnnnnn/nnnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn/nnnnnnnnn/nnnnnnnnn/nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnnnn_nnnnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnnnn_nnnnn_nnnnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnnnnn_nnnnnn_nnnnnn_nnnnnn_nnnn</t>
-  </si>
-  <si>
-    <t>nnnnnnnnnnnnnnnn_nnnnnn_nnnnnn_nnnnnn_nnnnnn_nnnnnn_nnnnnn_nnnn</t>
+    <t>23</t>
+  </si>
+  <si>
+    <t>nnnn/nnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnn/nnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnn/nnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnn/n/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnn/nnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnn/nnnn/nnnnn/nnnn/nnnn/nnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnn/nnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnn/n/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nn/nnn/nnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nn/nn/nn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/n/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnn/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnn/nnnnn/nnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnn/n/nnnnn/nnn</t>
   </si>
 </sst>
 </file>
@@ -226,444 +244,752 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9643527226945657</v>
+        <v>0.6650793666246707</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9636401877577638</v>
+        <v>0.6333333369758394</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9315251224620865</v>
+        <v>0.5629629790782928</v>
       </c>
       <c r="F2" t="n">
-        <v>16.25</v>
+        <v>4.564690015934132</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9571428577735941</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.9333333207501305</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9740740756193796</v>
+      </c>
+      <c r="J2" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9772918501168348</v>
+        <v>0.7084249099095663</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9756200169254221</v>
+        <v>0.6717948730175312</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9426411738550466</v>
+        <v>0.6410256624221802</v>
       </c>
       <c r="F3" t="n">
+        <v>3.9438543304418916</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9318681325667943</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.9128204905069791</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.9384615421295166</v>
+      </c>
+      <c r="J3" t="n">
         <v>16.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9871525167971066</v>
+        <v>0.6642857159887041</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9781291159873581</v>
+        <v>0.6125000007450581</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9595375722856566</v>
+        <v>0.5500000230967999</v>
       </c>
       <c r="F4" t="n">
-        <v>13.75</v>
+        <v>4.628322302798429</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.9761904766871815</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9499999806284904</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9818334857739752</v>
+        <v>0.6748299335946842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9795082084468154</v>
+        <v>0.6047619070325579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9416184971442801</v>
+        <v>0.5714285884584699</v>
       </c>
       <c r="F5" t="n">
-        <v>12.5</v>
+        <v>3.5647873180253145</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.8176870760463533</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.7857142686843872</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.7904762029647827</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9461732544015361</v>
+        <v>0.7352380967140199</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9530965283594496</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9306358383799793</v>
+        <v>0.6933333516120911</v>
       </c>
       <c r="F6" t="n">
-        <v>7.5</v>
+        <v>5.19607729673386</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.9790476196152823</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9882644626916932</v>
+        <v>0.7666666676600774</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9797101436836132</v>
+        <v>0.7666666507720947</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9583815029590805</v>
+        <v>0.7500000149011612</v>
       </c>
       <c r="F7" t="n">
-        <v>6.25</v>
+        <v>4.82012798686822</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.973809524377187</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9880165289256199</v>
+        <v>0.6357142875591915</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9710144919761714</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9335260115606936</v>
+        <v>0.5333333536982536</v>
       </c>
       <c r="F8" t="n">
-        <v>2.5</v>
+        <v>5.058266799648603</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.6904761921791803</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.6166666895151138</v>
+      </c>
+      <c r="J8" t="n">
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9863636360680761</v>
+        <v>0.7285714299905868</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9782608680103135</v>
+        <v>0.6666666567325592</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9595375722543352</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="F9" t="n">
+        <v>3.560766557852425</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9761904767581395</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C10" t="n">
-        <v>0.987190082644628</v>
+        <v>0.7285714299905868</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9797101441500844</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9364161849710982</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="F10" t="n">
+        <v>3.5717547516028096</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.9761904767581395</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J10" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9859504129275802</v>
+        <v>0.6238095248029345</v>
       </c>
       <c r="D11" t="n">
-        <v>0.975362317285676</v>
+        <v>0.5333333313465118</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9653179190751445</v>
+        <v>0.533333346247673</v>
       </c>
       <c r="F11" t="n">
+        <v>3.585072775681815</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9809523815200443</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J11" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9900826446280991</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9826086940972701</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9826589595375722</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F12" t="n">
+        <v>5.99869837562243</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.9809523815200443</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9844407170033436</v>
+        <v>0.7380952395143963</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9822404540953089</v>
+        <v>0.7333333194255829</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9508670520231214</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="F13" t="n">
+        <v>6.313177116711935</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.83333333446866</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.7999999821186066</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.800000011920929</v>
+      </c>
+      <c r="J13" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9859504132231405</v>
+        <v>0.7142857159887042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9768115926479948</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9826589595375722</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F14" t="n">
+        <v>3.54078656435013</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.7047619064648946</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.6666666865348816</v>
+      </c>
+      <c r="J14" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.8761904761904762</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9768115926479948</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9595375725988707</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="F15" t="n">
+        <v>3.54949721892675</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.9809523809523809</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J15" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9892561983471074</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9797101433726324</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9479768786127167</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F16" t="n">
+        <v>3.566019932429</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9809523815200443</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9851239669421488</v>
+        <v>0.8000000011353265</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9768115926479948</v>
+        <v>0.7666666507720947</v>
       </c>
       <c r="E17" t="n">
-        <v>0.953757225433526</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="F17" t="n">
+        <v>3.57579364776611</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.9809523809523809</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J17" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9892561983471074</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9768115942028985</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9479768786127167</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F18" t="n">
+        <v>3.57790423234304</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6857142874172756</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J18" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9167367664578585</v>
+        <v>0.6761904773258027</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9125683190392666</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9017341043907783</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F19" t="n">
+        <v>3.57837053537369</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.9714285719962347</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J19" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9722455873320943</v>
+        <v>0.6952380969410851</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9781420865996939</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E20" t="n">
-        <v>0.953757225433526</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F20" t="n">
+        <v>3.57998245159785</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6952380969410851</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J20" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9823381149839011</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="D21" t="n">
-        <v>0.969945348677088</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9421965317919075</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F21" t="n">
+        <v>3.58633218606313</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6857142874172756</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J21" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9831791570750077</v>
+        <v>0.6095238112267993</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9863388108425453</v>
+        <v>0.5333333611488342</v>
       </c>
       <c r="E22" t="n">
-        <v>0.953757225433526</v>
+        <v>0.46666666865348816</v>
       </c>
       <c r="F22" t="n">
+        <v>6.77043919960658</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6857142874172756</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="J22" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9814970759507284</v>
+        <v>0.7333333350363231</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9808743244311848</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9364161849710982</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="F23" t="n">
+        <v>7.71346523364385</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9809523815200443</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.8999999761581421</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.904761905329568</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.8333333134651184</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8666666746139526</v>
+      </c>
+      <c r="F24" t="n">
+        <v>8.27954773108164</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9809523815200443</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9666666388511658</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="J24" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/results/classification/iris/executions_results_partial.xlsx
+++ b/results/classification/iris/executions_results_partial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>architecture</t>
   </si>
@@ -26,9 +26,6 @@
     <t>partial_acc_test</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>total_acc_train</t>
   </si>
   <si>
@@ -125,58 +122,58 @@
     <t>nnnn/nnnnnnn/nnn</t>
   </si>
   <si>
+    <t>nnnn/n/nnn</t>
+  </si>
+  <si>
     <t>nnnn/nnnn/nnnn/nnn</t>
   </si>
   <si>
-    <t>nnnn/n/nnn</t>
+    <t>nnnn/nnnnn/nnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnnnnnn/nnn</t>
   </si>
   <si>
     <t>nnnn/nnnnnnnnnn/nnn</t>
   </si>
   <si>
-    <t>nnnn/nnnnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnn/nnnnn/nnn</t>
+    <t>nnnn/n/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nn/nn/nn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nn/nnn/nnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnn/n/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnn/n/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnn/nnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnn/nnnn/nnnnn/nnnn/nnnn/nnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnn/n/nnnnn/nnn</t>
+  </si>
+  <si>
+    <t>nnnn/nnnnn/nnnnn/nnnnn/nnn</t>
   </si>
   <si>
     <t>nnnn/nnnnnn/n/n/nnn</t>
   </si>
   <si>
-    <t>nnnn/nnn/nnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnn/nnnn/nnnnn/nnnn/nnnn/nnnnn/nnn</t>
-  </si>
-  <si>
     <t>nnnn/nnnnnn/nnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnn/n/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nn/nnn/nnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nn/nn/nn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/n/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnn/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnn/nnnnn/nnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnn/n/nnnnn/nnn</t>
   </si>
 </sst>
 </file>
@@ -253,16 +250,13 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="n">
         <v>0.6650793666246707</v>
@@ -274,27 +268,24 @@
         <v>0.5629629790782928</v>
       </c>
       <c r="F2" t="n">
-        <v>4.564690015934132</v>
+        <v>0.9571428577735941</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9571428577735941</v>
+        <v>0.9333333207501305</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9333333207501305</v>
+        <v>0.9740740756193796</v>
       </c>
       <c r="I2" t="n">
-        <v>0.9740740756193796</v>
-      </c>
-      <c r="J2" t="n">
         <v>22.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
         <v>0.7084249099095663</v>
@@ -306,27 +297,24 @@
         <v>0.6410256624221802</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9438543304418916</v>
+        <v>0.9318681325667943</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9318681325667943</v>
+        <v>0.9128204905069791</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9128204905069791</v>
+        <v>0.9384615421295166</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9384615421295166</v>
-      </c>
-      <c r="J3" t="n">
         <v>16.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>0.6642857159887041</v>
@@ -338,27 +326,24 @@
         <v>0.5500000230967999</v>
       </c>
       <c r="F4" t="n">
-        <v>4.628322302798429</v>
+        <v>0.9761904766871815</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9761904766871815</v>
+        <v>0.9499999806284904</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9499999806284904</v>
+        <v>1.0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J4" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C5" t="n">
         <v>0.6748299335946842</v>
@@ -370,27 +355,24 @@
         <v>0.5714285884584699</v>
       </c>
       <c r="F5" t="n">
-        <v>3.5647873180253145</v>
+        <v>0.8176870760463533</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8176870760463533</v>
+        <v>0.7857142686843872</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7857142686843872</v>
+        <v>0.7904762029647827</v>
       </c>
       <c r="I5" t="n">
-        <v>0.7904762029647827</v>
-      </c>
-      <c r="J5" t="n">
         <v>8.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
         <v>0.7352380967140199</v>
@@ -402,187 +384,169 @@
         <v>0.6933333516120911</v>
       </c>
       <c r="F6" t="n">
-        <v>5.19607729673386</v>
+        <v>0.9790476196152823</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9790476196152823</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9666666388511658</v>
+        <v>1.0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J6" t="n">
         <v>6.25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7666666676600774</v>
+        <v>0.6357142875591915</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7666666507720947</v>
+        <v>0.5999999940395355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7500000149011612</v>
+        <v>0.5333333536982536</v>
       </c>
       <c r="F7" t="n">
-        <v>4.82012798686822</v>
+        <v>0.6904761921791803</v>
       </c>
       <c r="G7" t="n">
-        <v>0.973809524377187</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.6166666895151138</v>
       </c>
       <c r="I7" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J7" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6357142875591915</v>
+        <v>0.7666666676600774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.7666666507720947</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5333333536982536</v>
+        <v>0.7500000149011612</v>
       </c>
       <c r="F8" t="n">
-        <v>5.058266799648603</v>
+        <v>0.973809524377187</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6904761921791803</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6333333253860474</v>
+        <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6166666895151138</v>
-      </c>
-      <c r="J8" t="n">
         <v>5.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7285714299905868</v>
+        <v>0.7380952395143963</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6666666567325592</v>
+        <v>0.7333333194255829</v>
       </c>
       <c r="E9" t="n">
         <v>0.7000000178813934</v>
       </c>
       <c r="F9" t="n">
-        <v>3.560766557852425</v>
+        <v>0.83333333446866</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9761904767581395</v>
+        <v>0.7999999821186066</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J9" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7285714299905868</v>
+        <v>0.6238095248029345</v>
       </c>
       <c r="D10" t="n">
-        <v>0.699999988079071</v>
+        <v>0.5333333313465118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7000000178813934</v>
+        <v>0.533333346247673</v>
       </c>
       <c r="F10" t="n">
-        <v>3.5717547516028096</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9761904767581395</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9666666388511658</v>
+        <v>1.0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J10" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6238095248029345</v>
+        <v>0.7285714299905868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5333333313465118</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="E11" t="n">
-        <v>0.533333346247673</v>
+        <v>0.7000000178813934</v>
       </c>
       <c r="F11" t="n">
-        <v>3.585072775681815</v>
+        <v>0.9761904767581395</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9809523815200443</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9666666388511658</v>
+        <v>1.0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J11" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" t="n">
         <v>0.6857142874172756</v>
@@ -594,62 +558,56 @@
         <v>0.6000000238418579</v>
       </c>
       <c r="F12" t="n">
-        <v>5.99869837562243</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9809523815200443</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9666666388511658</v>
+        <v>1.0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J12" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7380952395143963</v>
+        <v>0.7285714299905868</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7333333194255829</v>
+        <v>0.6666666567325592</v>
       </c>
       <c r="E13" t="n">
         <v>0.7000000178813934</v>
       </c>
       <c r="F13" t="n">
-        <v>6.313177116711935</v>
+        <v>0.9761904767581395</v>
       </c>
       <c r="G13" t="n">
-        <v>0.83333333446866</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H13" t="n">
-        <v>0.7999999821186066</v>
+        <v>1.0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.800000011920929</v>
-      </c>
-      <c r="J13" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7142857159887042</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="D14" t="n">
         <v>0.6333333253860474</v>
@@ -658,190 +616,172 @@
         <v>0.6000000238418579</v>
       </c>
       <c r="F14" t="n">
-        <v>3.54078656435013</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="G14" t="n">
-        <v>0.7047619064648946</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6666666865348816</v>
-      </c>
-      <c r="J14" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8761904761904762</v>
+        <v>0.6952380969410851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F15" t="n">
-        <v>3.54949721892675</v>
+        <v>0.6952380969410851</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9809523809523809</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I15" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J15" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.6761904773258027</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="E16" t="n">
         <v>0.6000000238418579</v>
       </c>
       <c r="F16" t="n">
-        <v>3.566019932429</v>
+        <v>0.9714285719962347</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9809523815200443</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9666666388511658</v>
+        <v>1.0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J16" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8000000011353265</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7666666507720947</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F17" t="n">
-        <v>3.57579364776611</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9809523809523809</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I17" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J17" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
+        <v>0.6095238112267993</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.46666666865348816</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.6857142874172756</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.6333333253860474</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.6000000238418579</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3.57790423234304</v>
-      </c>
       <c r="G18" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6000000238418579</v>
-      </c>
-      <c r="J18" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6761904773258027</v>
+        <v>0.8761904761904762</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="F19" t="n">
-        <v>3.57837053537369</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9714285719962347</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9666666388511658</v>
+        <v>1.0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J19" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6952380969410851</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="D20" t="n">
         <v>0.6333333253860474</v>
@@ -850,146 +790,131 @@
         <v>0.6000000238418579</v>
       </c>
       <c r="F20" t="n">
-        <v>3.57998245159785</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6952380969410851</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6333333253860474</v>
+        <v>1.0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6000000238418579</v>
-      </c>
-      <c r="J20" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.904761905329568</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="F21" t="n">
-        <v>3.58633218606313</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H21" t="n">
-        <v>0.6333333253860474</v>
+        <v>1.0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6000000238418579</v>
-      </c>
-      <c r="J21" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6095238112267993</v>
+        <v>0.7333333350363231</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="E22" t="n">
-        <v>0.46666666865348816</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="F22" t="n">
-        <v>6.77043919960658</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6333333253860474</v>
+        <v>1.0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6000000238418579</v>
-      </c>
-      <c r="J22" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7333333350363231</v>
+        <v>0.7142857159887042</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="E23" t="n">
+        <v>0.6000000238418579</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.7047619064648946</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6333333253860474</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.6666666865348816</v>
       </c>
-      <c r="F23" t="n">
-        <v>7.71346523364385</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.9809523815200443</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.8999999761581421</v>
-      </c>
       <c r="I23" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J23" t="n">
         <v>1.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C24" t="n">
-        <v>0.904761905329568</v>
+        <v>0.8000000011353265</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.7666666507720947</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="F24" t="n">
-        <v>8.27954773108164</v>
+        <v>0.9809523809523809</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9809523815200443</v>
+        <v>0.9666666388511658</v>
       </c>
       <c r="H24" t="n">
-        <v>0.9666666388511658</v>
+        <v>1.0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J24" t="n">
         <v>1.25</v>
       </c>
     </row>

--- a/results/classification/iris/executions_results_partial.xlsx
+++ b/results/classification/iris/executions_results_partial.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>architecture</t>
   </si>
@@ -107,73 +107,85 @@
     <t>23</t>
   </si>
   <si>
-    <t>nnnn/nnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnn/nnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnn/nnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnnnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/n/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nn/nn/nn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nn/nnn/nnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnn/n/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnn/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnn/nnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnn/nnnn/nnnnn/nnnn/nnnn/nnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnn/n/nnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnn/nnnnn/nnnnn/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnn/n/n/nnn</t>
-  </si>
-  <si>
-    <t>nnnn/nnnnnn/nnnnnn/nnn</t>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>nnnn_nnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_n_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnn_nnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nn_nn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnn_nnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nn_nnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnn_n_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnn_nnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnn_nnnnnnnn_nnn_nnnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnn_n_nnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnn_nnnnn_nnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnn_n_n_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnn_nnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnn_nnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnnnn_nnnnnnnnn_nnnnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnnnnn_nn_nnnnnnnnnn_nn_nnnnnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnnnnn_nnn</t>
+  </si>
+  <si>
+    <t>nnnn_nnnnnnnnnn_nnnnnnnnnn_nnn</t>
   </si>
 </sst>
 </file>
@@ -256,28 +268,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6650793666246707</v>
+        <v>0.824595469969376</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6333333369758394</v>
+        <v>0.8229166666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5629629790782928</v>
+        <v>0.49333334863185885</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9571428577735941</v>
+        <v>0.9688888894565522</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9333333207501305</v>
+        <v>0.9199999968210856</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9740740756193796</v>
+        <v>1.0</v>
       </c>
       <c r="I2" t="n">
-        <v>22.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="3">
@@ -285,28 +297,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7084249099095663</v>
+        <v>0.8478964407322477</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6717948730175312</v>
+        <v>0.8255208333333334</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6410256624221802</v>
+        <v>0.4222222374131282</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9318681325667943</v>
+        <v>0.9706349212025839</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9128204905069791</v>
+        <v>0.9194444417953491</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9384615421295166</v>
+        <v>1.0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.25</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="4">
@@ -314,28 +326,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6642857159887041</v>
+        <v>0.8287731692628953</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6125000007450581</v>
+        <v>0.8011363636363636</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5500000230967999</v>
+        <v>0.5333333516662772</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9761904766871815</v>
+        <v>0.9445887452080136</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9499999806284904</v>
+        <v>0.9121212092312899</v>
       </c>
       <c r="H4" t="n">
-        <v>1.0</v>
+        <v>0.9636363658038053</v>
       </c>
       <c r="I4" t="n">
-        <v>10.0</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="5">
@@ -343,28 +355,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6748299335946842</v>
+        <v>0.7779126221910843</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6047619070325579</v>
+        <v>0.75390625</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5714285884584699</v>
+        <v>0.5666666887700558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8176870760463533</v>
+        <v>0.8785714294938815</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7857142686843872</v>
+        <v>0.8124999925494194</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7904762029647827</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="I5" t="n">
-        <v>8.75</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
@@ -372,25 +384,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7352380967140199</v>
+        <v>0.6893203900855722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.699999988079071</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6933333516120911</v>
+        <v>0.42666667997837066</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9790476196152823</v>
+        <v>0.7600000015894572</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.7133333325386048</v>
       </c>
       <c r="H6" t="n">
-        <v>1.0</v>
+        <v>0.7200000166893006</v>
       </c>
       <c r="I6" t="n">
         <v>6.25</v>
@@ -401,28 +413,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6357142875591915</v>
+        <v>0.9242718452388801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5999999940395355</v>
+        <v>0.9125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5333333536982536</v>
+        <v>0.5733333587646484</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6904761921791803</v>
+        <v>0.9771428577105205</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.9200000047683716</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6166666895151138</v>
+        <v>1.0</v>
       </c>
       <c r="I7" t="n">
-        <v>5.0</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="8">
@@ -430,28 +442,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7666666676600774</v>
+        <v>0.8802589002550613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7666666507720947</v>
+        <v>0.875</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7500000149011612</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F8" t="n">
-        <v>0.973809524377187</v>
+        <v>0.9746031749816167</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9111111164093018</v>
       </c>
       <c r="H8" t="n">
         <v>1.0</v>
       </c>
       <c r="I8" t="n">
-        <v>5.0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="9">
@@ -459,25 +471,25 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7380952395143963</v>
+        <v>0.699029127370964</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7333333194255829</v>
+        <v>0.625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7000000178813934</v>
+        <v>0.4000000134110451</v>
       </c>
       <c r="F9" t="n">
-        <v>0.83333333446866</v>
+        <v>0.9428571434248061</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7999999821186066</v>
+        <v>0.8833333253860474</v>
       </c>
       <c r="H9" t="n">
-        <v>0.800000011920929</v>
+        <v>1.0</v>
       </c>
       <c r="I9" t="n">
         <v>2.5</v>
@@ -488,22 +500,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6238095248029345</v>
+        <v>0.7621359234874688</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5333333313465118</v>
+        <v>0.75</v>
       </c>
       <c r="E10" t="n">
-        <v>0.533333346247673</v>
+        <v>0.4000000134110451</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9809523815200443</v>
+        <v>0.9761904767581395</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H10" t="n">
         <v>1.0</v>
@@ -517,22 +529,22 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7285714299905868</v>
+        <v>0.9126213598019869</v>
       </c>
       <c r="D11" t="n">
-        <v>0.699999988079071</v>
+        <v>0.875</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7000000178813934</v>
+        <v>0.46666668355464935</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9761904767581395</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H11" t="n">
         <v>1.0</v>
@@ -546,28 +558,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.6893203900855722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.59375</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.800000011920929</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9809523815200443</v>
+        <v>0.9142857148533776</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.8333333134651184</v>
       </c>
       <c r="H12" t="n">
-        <v>1.0</v>
+        <v>0.8666666746139526</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="13">
@@ -575,28 +587,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7285714299905868</v>
+        <v>0.6893203900855722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6666666567325592</v>
+        <v>0.6875</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7000000178813934</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9761904767581395</v>
+        <v>0.6857142874172756</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.6333333253860474</v>
       </c>
       <c r="H13" t="n">
-        <v>1.0</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="I13" t="n">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="14">
@@ -604,25 +616,25 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.9029126219379092</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.875</v>
       </c>
       <c r="E14" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.9619047624724252</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6000000238418579</v>
+        <v>1.0</v>
       </c>
       <c r="I14" t="n">
         <v>1.25</v>
@@ -633,25 +645,25 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6952380969410851</v>
+        <v>0.8640776699029126</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.875</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6952380969410851</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H15" t="n">
-        <v>0.6000000238418579</v>
+        <v>1.0</v>
       </c>
       <c r="I15" t="n">
         <v>1.25</v>
@@ -662,22 +674,22 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6761904773258027</v>
+        <v>0.8543689320388349</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.8125</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F16" t="n">
         <v>0.9714285719962347</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H16" t="n">
         <v>1.0</v>
@@ -691,25 +703,25 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.7184466036778052</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.71875</v>
       </c>
       <c r="E17" t="n">
         <v>0.6000000238418579</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.9714285719962347</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6000000238418579</v>
+        <v>1.0</v>
       </c>
       <c r="I17" t="n">
         <v>1.25</v>
@@ -720,25 +732,25 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6095238112267993</v>
+        <v>0.7087378652350417</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5333333611488342</v>
+        <v>0.65625</v>
       </c>
       <c r="E18" t="n">
         <v>0.46666666865348816</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.7619047636077517</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.6666666865348816</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.7333333492279053</v>
       </c>
       <c r="I18" t="n">
         <v>1.25</v>
@@ -749,22 +761,22 @@
         <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8761904761904762</v>
+        <v>0.815533981739896</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.84375</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.46666666865348816</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9809523809523809</v>
+        <v>0.9809523815200443</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H19" t="n">
         <v>1.0</v>
@@ -778,13 +790,13 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6857142874172756</v>
+        <v>0.7864077687263489</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.8125</v>
       </c>
       <c r="E20" t="n">
         <v>0.6000000238418579</v>
@@ -793,7 +805,7 @@
         <v>0.9809523815200443</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.8999999761581421</v>
       </c>
       <c r="H20" t="n">
         <v>1.0</v>
@@ -807,22 +819,22 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C21" t="n">
-        <v>0.904761905329568</v>
+        <v>0.9029126219379092</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8333333134651184</v>
+        <v>0.8125</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8666666746139526</v>
+        <v>0.3333333432674408</v>
       </c>
       <c r="F21" t="n">
         <v>0.9809523815200443</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H21" t="n">
         <v>1.0</v>
@@ -836,22 +848,22 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7333333350363231</v>
+        <v>0.9029126213592233</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.875</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6666666865348816</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9809523815200443</v>
+        <v>0.9714285719962347</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8999999761581421</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H22" t="n">
         <v>1.0</v>
@@ -865,25 +877,25 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7142857159887042</v>
+        <v>0.8543689326175208</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.875</v>
       </c>
       <c r="E23" t="n">
-        <v>0.6000000238418579</v>
+        <v>0.4000000059604645</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7047619064648946</v>
+        <v>0.9714285719962347</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6333333253860474</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6666666865348816</v>
+        <v>1.0</v>
       </c>
       <c r="I23" t="n">
         <v>1.25</v>
@@ -894,27 +906,85 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8000000011353265</v>
+        <v>0.9029126225165951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7666666507720947</v>
+        <v>0.9375</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7333333492279053</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9809523809523809</v>
+        <v>0.9619047624724252</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9666666388511658</v>
+        <v>0.9333333373069763</v>
       </c>
       <c r="H24" t="n">
         <v>1.0</v>
       </c>
       <c r="I24" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.5333333611488342</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9619047624724252</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.912621359223301</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.90625</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4000000059604645</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9809523815200443</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9333333373069763</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="I26" t="n">
         <v>1.25</v>
       </c>
     </row>
